--- a/test/VerificationMatrix.xlsx
+++ b/test/VerificationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Components\GECKO\Gecko3\GECKO\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A86224-BE9A-44D9-AD30-85A09B9CAC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C216C60D-842B-4E28-BA1C-788B7B384667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Verification</t>
   </si>
@@ -245,6 +244,15 @@
   </si>
   <si>
     <t>tc0010</t>
+  </si>
+  <si>
+    <t>tc0011</t>
+  </si>
+  <si>
+    <t>partly by tc0011</t>
+  </si>
+  <si>
+    <t>tc0011 - we did not test all possible parameterizations here</t>
   </si>
 </sst>
 </file>
@@ -574,7 +582,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,6 +619,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -653,6 +664,9 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -668,10 +682,16 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">

--- a/test/VerificationMatrix.xlsx
+++ b/test/VerificationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Components\GECKO\Gecko3\GECKO\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C216C60D-842B-4E28-BA1C-788B7B384667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9ECCC-DF79-4D69-BD35-6FDDA343F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Verification</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>tc0011 - we did not test all possible parameterizations here</t>
+  </si>
+  <si>
+    <t>tc0012</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,6 +630,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/test/VerificationMatrix.xlsx
+++ b/test/VerificationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Components\GECKO\Gecko3\GECKO\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9ECCC-DF79-4D69-BD35-6FDDA343F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D47F99-A67B-47F2-B07B-9CFB56DA813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Verification</t>
   </si>
@@ -108,9 +108,6 @@
     <t>kcat_sensitivity_analysis/findTopLimitations.m</t>
   </si>
   <si>
-    <t>kcat_sensitivity_analysis/modifyKcats.m</t>
-  </si>
-  <si>
     <t>kcat_sensitivity_analysis/sensitivityTuning.m</t>
   </si>
   <si>
@@ -126,18 +123,9 @@
     <t>Not explicitly tested - The code has existed for a long time</t>
   </si>
   <si>
-    <t>Do we really need this code? It seems it works with the old EC models?</t>
-  </si>
-  <si>
     <t>Not sure this works anymore - written for the old model structure?</t>
   </si>
   <si>
-    <t>limit_proteins/constrainEnzymes.m</t>
-  </si>
-  <si>
-    <t>limit_proteins/constrainPool.m</t>
-  </si>
-  <si>
     <t>limit_proteins/constrainProtConcs.m</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>limit_proteins/flexibilizeProteins.m</t>
   </si>
   <si>
-    <t>limit_proteins/getConstrainedModel.m</t>
-  </si>
-  <si>
     <t>limit_proteins/measureAbundance.m</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>userdata/ecYeastGEM/code/sumProtein.m</t>
   </si>
   <si>
-    <t>saveECModel.m</t>
-  </si>
-  <si>
     <t>enhanceGEM.m</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>tc0008</t>
   </si>
   <si>
-    <t>tc0009 - currently doesn't work</t>
-  </si>
-  <si>
     <t>tc0010</t>
   </si>
   <si>
@@ -256,6 +235,21 @@
   </si>
   <si>
     <t>tc0012</t>
+  </si>
+  <si>
+    <t>utilities/loadConventionalGEM.m</t>
+  </si>
+  <si>
+    <t>utilities/loadEcModel.m</t>
+  </si>
+  <si>
+    <t>utilities/saveEcModel.m</t>
+  </si>
+  <si>
+    <t>change_model/getKcatAcrossIsoenzymes.m</t>
+  </si>
+  <si>
+    <t>gather_kcats/getStandardKcat.m</t>
   </si>
 </sst>
 </file>
@@ -585,7 +579,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -607,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -631,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -647,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,328 +649,319 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/test/VerificationMatrix.xlsx
+++ b/test/VerificationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Components\GECKO\Gecko3\GECKO\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D47F99-A67B-47F2-B07B-9CFB56DA813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD880CA-AEB9-4026-81FC-A0B861C81706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Verification</t>
   </si>
@@ -250,6 +250,24 @@
   </si>
   <si>
     <t>gather_kcats/getStandardKcat.m</t>
+  </si>
+  <si>
+    <t>tcm0001, tcm0002 - The test doesn't really check the function, only that some output is read</t>
+  </si>
+  <si>
+    <t>tcm0001, tcm0002 - The test doesn't really check the function, only that we get something</t>
+  </si>
+  <si>
+    <t>Has only been tested by running it manually, not tested by test cases</t>
+  </si>
+  <si>
+    <t>tcm0001</t>
+  </si>
+  <si>
+    <t>tcm0001 - does not test all aspects of the adapter, but some.</t>
+  </si>
+  <si>
+    <t>tcm0002 - does not test all aspects of the adapter, but some.</t>
   </si>
 </sst>
 </file>
@@ -578,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,11 +700,17 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -764,6 +788,9 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -785,6 +812,9 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -891,10 +921,16 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
